--- a/PRISMA/Agro/docs/Cronograma.xlsx
+++ b/PRISMA/Agro/docs/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\Agro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE856DB0-2886-44C4-B701-4970EAD65809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AEC8F7-DD55-49DE-95A9-2C8E73991B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{14855311-F69E-4A5C-8BF4-409A0B16B887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14855311-F69E-4A5C-8BF4-409A0B16B887}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,12 +279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC1C1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -411,8 +405,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -445,15 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,15 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA24F860-8A46-4C00-8B5B-897AE7B2F476}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,155 +807,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="20"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="24"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="20"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="24"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="20"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="24"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="20"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="24"/>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="7">
         <v>16</v>
       </c>
@@ -1029,13 +1019,13 @@
       <c r="V5" s="8">
         <v>8</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="8">
         <v>9</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="8">
         <v>10</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="8">
         <v>11</v>
       </c>
       <c r="Z5" s="15">
@@ -1059,66 +1049,66 @@
       <c r="AF5" s="8">
         <v>18</v>
       </c>
-      <c r="AG5" s="20"/>
+      <c r="AG5" s="24"/>
     </row>
     <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="20"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="24"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1133,7 +1123,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="20"/>
+      <c r="AG7" s="24"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1170,44 +1160,44 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="24"/>
     </row>
     <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="20"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="24"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1244,7 +1234,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="20"/>
+      <c r="AG10" s="24"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1281,7 +1271,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="20"/>
+      <c r="AG11" s="24"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1318,7 +1308,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="20"/>
+      <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1355,44 +1345,44 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="24"/>
     </row>
     <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="24"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1429,7 +1419,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="20"/>
+      <c r="AG15" s="24"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -1466,7 +1456,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="20"/>
+      <c r="AG16" s="24"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -1503,7 +1493,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="20"/>
+      <c r="AG17" s="24"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1540,44 +1530,44 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="20"/>
+      <c r="AG18" s="24"/>
     </row>
     <row r="19" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="24"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -1614,7 +1604,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="20"/>
+      <c r="AG20" s="24"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -1651,7 +1641,7 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="20"/>
+      <c r="AG21" s="24"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -1688,7 +1678,7 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="20"/>
+      <c r="AG22" s="24"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -1725,7 +1715,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="24"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -1762,44 +1752,44 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="20"/>
+      <c r="AG24" s="24"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="24"/>
     </row>
     <row r="26" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
@@ -1836,7 +1826,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="20"/>
+      <c r="AG26" s="24"/>
     </row>
     <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -1863,9 +1853,9 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -1873,7 +1863,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="20"/>
+      <c r="AG27" s="24"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -1910,44 +1900,44 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="24"/>
     </row>
     <row r="29" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="24"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1984,80 +1974,81 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="20"/>
+      <c r="AG30" s="24"/>
     </row>
     <row r="31" spans="1:33" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="20"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="24"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:AF2"/>
     <mergeCell ref="B14:AF14"/>
     <mergeCell ref="AG1:AG31"/>
     <mergeCell ref="B35:C35"/>
@@ -2074,7 +2065,6 @@
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B3:N4"/>
     <mergeCell ref="O3:AF4"/>
-    <mergeCell ref="B1:AF2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRISMA/Agro/docs/Cronograma.xlsx
+++ b/PRISMA/Agro/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\Agro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AEC8F7-DD55-49DE-95A9-2C8E73991B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EDDC2D-3CA5-4EEE-8CEA-0ED1E99E02E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14855311-F69E-4A5C-8BF4-409A0B16B887}"/>
   </bookViews>
@@ -278,7 +278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC1C1"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,10 +380,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -400,76 +399,78 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,7 +797,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,308 +808,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="24"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="21"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="24"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="21"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="24"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="21"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="24"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="21"/>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="7">
+      <c r="A5" s="34"/>
+      <c r="B5" s="6">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>17</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>18</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>19</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>20</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>22</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>23</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>24</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>25</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>27</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>28</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>1</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>2</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>3</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>4</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="40">
         <v>5</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="40">
         <v>6</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="40">
         <v>7</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <v>8</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <v>9</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <v>10</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <v>11</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="40">
         <v>12</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="40">
         <v>13</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="40">
         <v>14</v>
       </c>
-      <c r="AC5" s="15">
+      <c r="AC5" s="40">
         <v>15</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5" s="40">
         <v>16</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="7">
         <v>17</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <v>18</v>
       </c>
-      <c r="AG5" s="24"/>
+      <c r="AG5" s="21"/>
     </row>
     <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="24"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="21"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1123,14 +1124,14 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="24"/>
+      <c r="AG7" s="21"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1160,52 +1161,52 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="24"/>
+      <c r="AG8" s="21"/>
     </row>
     <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="24"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="21"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1234,17 +1235,17 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="24"/>
+      <c r="AG10" s="21"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1271,19 +1272,19 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="24"/>
+      <c r="AG11" s="21"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1308,20 +1309,20 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="24"/>
+      <c r="AG12" s="21"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1345,60 +1346,60 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="24"/>
+      <c r="AG13" s="21"/>
     </row>
     <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="24"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="21"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1419,26 +1420,26 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="24"/>
+      <c r="AG15" s="21"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1456,28 +1457,28 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="24"/>
+      <c r="AG16" s="21"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1493,29 +1494,29 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="24"/>
+      <c r="AG17" s="21"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1530,61 +1531,61 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="24"/>
+      <c r="AG18" s="21"/>
     </row>
     <row r="19" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="24"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="21"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1604,26 +1605,26 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="24"/>
+      <c r="AG20" s="21"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1641,10 +1642,10 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="24"/>
+      <c r="AG21" s="21"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1"/>
@@ -1652,20 +1653,20 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -1678,10 +1679,10 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="24"/>
+      <c r="AG22" s="21"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="1"/>
@@ -1689,20 +1690,20 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -1715,10 +1716,10 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="24"/>
+      <c r="AG23" s="21"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1"/>
@@ -1726,22 +1727,22 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="3"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -1752,70 +1753,70 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="24"/>
+      <c r="AG24" s="21"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="24"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="21"/>
     </row>
     <row r="26" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="3"/>
+      <c r="V26" s="2"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -1826,121 +1827,121 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="24"/>
+      <c r="AG26" s="21"/>
     </row>
     <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="4"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="3"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="24"/>
+      <c r="AG27" s="21"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="24"/>
+      <c r="AG28" s="21"/>
     </row>
     <row r="29" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="24"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="21"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1"/>
@@ -1951,16 +1952,16 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="14"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -1970,84 +1971,85 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="39"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="24"/>
+      <c r="AG30" s="21"/>
     </row>
     <row r="31" spans="1:33" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="24"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="21"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O3:AF4"/>
     <mergeCell ref="B1:AF2"/>
     <mergeCell ref="B14:AF14"/>
     <mergeCell ref="AG1:AG31"/>
@@ -2064,7 +2066,6 @@
     <mergeCell ref="A31:AF31"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B3:N4"/>
-    <mergeCell ref="O3:AF4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
